--- a/results/minimal_seats-Germany.xlsx
+++ b/results/minimal_seats-Germany.xlsx
@@ -19,28 +19,28 @@
     <t>Key</t>
   </si>
   <si>
-    <t>CDU</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>FDP</t>
-  </si>
-  <si>
-    <t>G -</t>
-  </si>
-  <si>
-    <t>PDS</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>Lin</t>
-  </si>
-  <si>
-    <t>AfD</t>
+    <t>CDU - Christian Democratic Union (Christlich Demokratische Union , CDU)</t>
+  </si>
+  <si>
+    <t>CSU - Christian Social Union  (Christlich Soziale Union, CSU)</t>
+  </si>
+  <si>
+    <t>FDP - Free Democrats  (Freie Demokratische Partei, FDP)</t>
+  </si>
+  <si>
+    <t>G - Alliance 90-Greens (Bundnis 90-Die Grunen, G)</t>
+  </si>
+  <si>
+    <t>PDS - Party of Democratic Socialism (Partei des Demokratischen Sozialismus, PDS)</t>
+  </si>
+  <si>
+    <t>SPD - Social Democrats (Sozialdemokratische Partei Deutschlands, SPD)</t>
+  </si>
+  <si>
+    <t>Linke - The Left (Die Linke, Linke)</t>
+  </si>
+  <si>
+    <t>AfD - Alternative for Germany (Alternative für Deutschland, AfD)</t>
   </si>
   <si>
     <t>1994</t>
